--- a/Tabel1_bedrijfstakken_productgroepen.xlsx
+++ b/Tabel1_bedrijfstakken_productgroepen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katrijn_alaerts\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maarten_stevens\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29310FE4-7104-4FB4-8F3E-1E4ED071BDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C067043-EC09-48BD-B31B-71D894D96919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabel" sheetId="4" r:id="rId1"/>
@@ -1049,9 +1049,6 @@
     <t>Bedrijfstak (detail)</t>
   </si>
   <si>
-    <t>Bedrijftak (gegroepeerd)</t>
-  </si>
-  <si>
     <t>Input-outputmodel</t>
   </si>
   <si>
@@ -1074,6 +1071,9 @@
   </si>
   <si>
     <t>kleding &amp; textiel</t>
+  </si>
+  <si>
+    <t>Bedrijfstak (gegroepeerd)</t>
   </si>
 </sst>
 </file>
@@ -1939,32 +1939,32 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>331</v>
       </c>
@@ -1975,10 +1975,10 @@
         <v>259</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>331</v>
       </c>
@@ -1989,10 +1989,10 @@
         <v>255</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>331</v>
       </c>
@@ -2003,10 +2003,10 @@
         <v>258</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>331</v>
       </c>
@@ -2017,10 +2017,10 @@
         <v>260</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>331</v>
       </c>
@@ -2031,10 +2031,10 @@
         <v>257</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>331</v>
       </c>
@@ -2045,10 +2045,10 @@
         <v>256</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>331</v>
       </c>
@@ -2059,10 +2059,10 @@
         <v>126</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>331</v>
       </c>
@@ -2073,10 +2073,10 @@
         <v>128</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>330</v>
       </c>
@@ -2087,10 +2087,10 @@
         <v>213</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>330</v>
       </c>
@@ -2101,10 +2101,10 @@
         <v>217</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>330</v>
       </c>
@@ -2115,10 +2115,10 @@
         <v>212</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>330</v>
       </c>
@@ -2129,10 +2129,10 @@
         <v>219</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>330</v>
       </c>
@@ -2143,10 +2143,10 @@
         <v>221</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>330</v>
       </c>
@@ -2157,10 +2157,10 @@
         <v>220</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>330</v>
       </c>
@@ -2171,10 +2171,10 @@
         <v>218</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>330</v>
       </c>
@@ -2185,10 +2185,10 @@
         <v>214</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>330</v>
       </c>
@@ -2199,10 +2199,10 @@
         <v>215</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>330</v>
       </c>
@@ -2213,10 +2213,10 @@
         <v>216</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>330</v>
       </c>
@@ -2227,10 +2227,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>330</v>
       </c>
@@ -2241,10 +2241,10 @@
         <v>76</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>330</v>
       </c>
@@ -2255,10 +2255,10 @@
         <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>330</v>
       </c>
@@ -2269,10 +2269,10 @@
         <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>330</v>
       </c>
@@ -2283,10 +2283,10 @@
         <v>70</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>330</v>
       </c>
@@ -2297,10 +2297,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>333</v>
       </c>
@@ -2311,10 +2311,10 @@
         <v>248</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>333</v>
       </c>
@@ -2325,10 +2325,10 @@
         <v>249</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>333</v>
       </c>
@@ -2339,10 +2339,10 @@
         <v>211</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>333</v>
       </c>
@@ -2353,10 +2353,10 @@
         <v>122</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>333</v>
       </c>
@@ -2367,10 +2367,10 @@
         <v>66</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>333</v>
       </c>
@@ -2381,10 +2381,10 @@
         <v>123</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>333</v>
       </c>
@@ -2395,10 +2395,10 @@
         <v>68</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>333</v>
       </c>
@@ -2409,10 +2409,10 @@
         <v>69</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>333</v>
       </c>
@@ -2423,10 +2423,10 @@
         <v>115</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>333</v>
       </c>
@@ -2437,10 +2437,10 @@
         <v>108</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>333</v>
       </c>
@@ -2451,10 +2451,10 @@
         <v>110</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>333</v>
       </c>
@@ -2465,10 +2465,10 @@
         <v>119</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>333</v>
       </c>
@@ -2479,10 +2479,10 @@
         <v>112</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>333</v>
       </c>
@@ -2493,10 +2493,10 @@
         <v>111</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>333</v>
       </c>
@@ -2507,10 +2507,10 @@
         <v>114</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>333</v>
       </c>
@@ -2521,10 +2521,10 @@
         <v>116</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>333</v>
       </c>
@@ -2535,10 +2535,10 @@
         <v>117</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>333</v>
       </c>
@@ -2549,10 +2549,10 @@
         <v>118</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>333</v>
       </c>
@@ -2563,10 +2563,10 @@
         <v>113</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>333</v>
       </c>
@@ -2577,10 +2577,10 @@
         <v>120</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>333</v>
       </c>
@@ -2591,10 +2591,10 @@
         <v>124</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>333</v>
       </c>
@@ -2605,10 +2605,10 @@
         <v>121</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>130</v>
       </c>
@@ -2619,10 +2619,10 @@
         <v>265</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>130</v>
       </c>
@@ -2633,10 +2633,10 @@
         <v>264</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>130</v>
       </c>
@@ -2647,10 +2647,10 @@
         <v>261</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>130</v>
       </c>
@@ -2661,10 +2661,10 @@
         <v>262</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>130</v>
       </c>
@@ -2675,10 +2675,10 @@
         <v>263</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>130</v>
       </c>
@@ -2689,10 +2689,10 @@
         <v>131</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>130</v>
       </c>
@@ -2703,10 +2703,10 @@
         <v>133</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>130</v>
       </c>
@@ -2717,10 +2717,10 @@
         <v>129</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>130</v>
       </c>
@@ -2731,10 +2731,10 @@
         <v>132</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>328</v>
       </c>
@@ -2745,10 +2745,10 @@
         <v>184</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>328</v>
       </c>
@@ -2759,10 +2759,10 @@
         <v>23</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>328</v>
       </c>
@@ -2773,10 +2773,10 @@
         <v>210</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>328</v>
       </c>
@@ -2787,10 +2787,10 @@
         <v>208</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>328</v>
       </c>
@@ -2801,10 +2801,10 @@
         <v>209</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>328</v>
       </c>
@@ -2815,10 +2815,10 @@
         <v>58</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>328</v>
       </c>
@@ -2829,10 +2829,10 @@
         <v>63</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>328</v>
       </c>
@@ -2843,10 +2843,10 @@
         <v>64</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>328</v>
       </c>
@@ -2857,10 +2857,10 @@
         <v>61</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>328</v>
       </c>
@@ -2871,10 +2871,10 @@
         <v>62</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>328</v>
       </c>
@@ -2885,12 +2885,12 @@
         <v>60</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>67</v>
@@ -2899,12 +2899,12 @@
         <v>251</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>67</v>
@@ -2913,12 +2913,12 @@
         <v>245</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>67</v>
@@ -2927,12 +2927,12 @@
         <v>252</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>67</v>
@@ -2941,12 +2941,12 @@
         <v>229</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>67</v>
@@ -2955,12 +2955,12 @@
         <v>247</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>67</v>
@@ -2969,12 +2969,12 @@
         <v>254</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>67</v>
@@ -2983,12 +2983,12 @@
         <v>240</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>67</v>
@@ -2997,12 +2997,12 @@
         <v>253</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>67</v>
@@ -3011,12 +3011,12 @@
         <v>238</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>67</v>
@@ -3025,12 +3025,12 @@
         <v>235</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>67</v>
@@ -3039,12 +3039,12 @@
         <v>227</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>67</v>
@@ -3053,12 +3053,12 @@
         <v>225</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>67</v>
@@ -3067,12 +3067,12 @@
         <v>239</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>67</v>
@@ -3081,12 +3081,12 @@
         <v>224</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>67</v>
@@ -3095,12 +3095,12 @@
         <v>232</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>67</v>
@@ -3109,12 +3109,12 @@
         <v>234</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>67</v>
@@ -3123,12 +3123,12 @@
         <v>231</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>67</v>
@@ -3137,12 +3137,12 @@
         <v>222</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>67</v>
@@ -3151,12 +3151,12 @@
         <v>226</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>67</v>
@@ -3165,12 +3165,12 @@
         <v>242</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>67</v>
@@ -3179,12 +3179,12 @@
         <v>236</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>67</v>
@@ -3193,12 +3193,12 @@
         <v>237</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>67</v>
@@ -3207,12 +3207,12 @@
         <v>233</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>67</v>
@@ -3221,12 +3221,12 @@
         <v>228</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>67</v>
@@ -3235,12 +3235,12 @@
         <v>244</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>67</v>
@@ -3249,12 +3249,12 @@
         <v>243</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>67</v>
@@ -3263,12 +3263,12 @@
         <v>246</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>67</v>
@@ -3277,12 +3277,12 @@
         <v>241</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>67</v>
@@ -3291,12 +3291,12 @@
         <v>230</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>67</v>
@@ -3305,12 +3305,12 @@
         <v>223</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>67</v>
@@ -3319,12 +3319,12 @@
         <v>250</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>67</v>
@@ -3333,12 +3333,12 @@
         <v>88</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>67</v>
@@ -3347,12 +3347,12 @@
         <v>96</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>67</v>
@@ -3361,12 +3361,12 @@
         <v>92</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>67</v>
@@ -3375,12 +3375,12 @@
         <v>90</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>67</v>
@@ -3389,12 +3389,12 @@
         <v>84</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>67</v>
@@ -3403,12 +3403,12 @@
         <v>80</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>67</v>
@@ -3417,12 +3417,12 @@
         <v>81</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>67</v>
@@ -3431,12 +3431,12 @@
         <v>79</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>67</v>
@@ -3445,12 +3445,12 @@
         <v>100</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>67</v>
@@ -3459,12 +3459,12 @@
         <v>97</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>67</v>
@@ -3473,12 +3473,12 @@
         <v>105</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>67</v>
@@ -3487,12 +3487,12 @@
         <v>77</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>67</v>
@@ -3501,12 +3501,12 @@
         <v>98</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>67</v>
@@ -3515,12 +3515,12 @@
         <v>102</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>67</v>
@@ -3529,12 +3529,12 @@
         <v>103</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>67</v>
@@ -3543,12 +3543,12 @@
         <v>99</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>67</v>
@@ -3557,12 +3557,12 @@
         <v>83</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>67</v>
@@ -3571,12 +3571,12 @@
         <v>104</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>67</v>
@@ -3585,12 +3585,12 @@
         <v>101</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>67</v>
@@ -3599,12 +3599,12 @@
         <v>94</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>67</v>
@@ -3613,12 +3613,12 @@
         <v>86</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>67</v>
@@ -3627,12 +3627,12 @@
         <v>107</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>67</v>
@@ -3641,12 +3641,12 @@
         <v>106</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>67</v>
@@ -3655,12 +3655,12 @@
         <v>82</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>67</v>
@@ -3669,12 +3669,12 @@
         <v>89</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>67</v>
@@ -3683,12 +3683,12 @@
         <v>93</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>67</v>
@@ -3697,12 +3697,12 @@
         <v>78</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>67</v>
@@ -3711,12 +3711,12 @@
         <v>91</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>67</v>
@@ -3725,12 +3725,12 @@
         <v>95</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>67</v>
@@ -3739,12 +3739,12 @@
         <v>87</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>67</v>
@@ -3753,10 +3753,10 @@
         <v>85</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>327</v>
       </c>
@@ -3767,10 +3767,10 @@
         <v>207</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>327</v>
       </c>
@@ -3781,10 +3781,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>334</v>
       </c>
@@ -3795,10 +3795,10 @@
         <v>293</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>334</v>
       </c>
@@ -3809,10 +3809,10 @@
         <v>307</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>334</v>
       </c>
@@ -3823,10 +3823,10 @@
         <v>294</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>334</v>
       </c>
@@ -3837,10 +3837,10 @@
         <v>284</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>334</v>
       </c>
@@ -3851,10 +3851,10 @@
         <v>304</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>334</v>
       </c>
@@ -3865,10 +3865,10 @@
         <v>319</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>334</v>
       </c>
@@ -3879,10 +3879,10 @@
         <v>318</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>334</v>
       </c>
@@ -3893,10 +3893,10 @@
         <v>309</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>334</v>
       </c>
@@ -3907,10 +3907,10 @@
         <v>281</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>334</v>
       </c>
@@ -3921,10 +3921,10 @@
         <v>305</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>334</v>
       </c>
@@ -3935,10 +3935,10 @@
         <v>291</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>334</v>
       </c>
@@ -3949,10 +3949,10 @@
         <v>282</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>334</v>
       </c>
@@ -3963,10 +3963,10 @@
         <v>290</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>334</v>
       </c>
@@ -3977,10 +3977,10 @@
         <v>283</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>334</v>
       </c>
@@ -3991,10 +3991,10 @@
         <v>325</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>334</v>
       </c>
@@ -4005,10 +4005,10 @@
         <v>320</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>334</v>
       </c>
@@ -4019,10 +4019,10 @@
         <v>316</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>334</v>
       </c>
@@ -4033,10 +4033,10 @@
         <v>317</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>334</v>
       </c>
@@ -4047,10 +4047,10 @@
         <v>287</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>334</v>
       </c>
@@ -4061,10 +4061,10 @@
         <v>288</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>334</v>
       </c>
@@ -4075,10 +4075,10 @@
         <v>311</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>334</v>
       </c>
@@ -4089,10 +4089,10 @@
         <v>280</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>334</v>
       </c>
@@ -4103,10 +4103,10 @@
         <v>308</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>334</v>
       </c>
@@ -4117,10 +4117,10 @@
         <v>285</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>334</v>
       </c>
@@ -4131,10 +4131,10 @@
         <v>297</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>334</v>
       </c>
@@ -4145,10 +4145,10 @@
         <v>315</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>334</v>
       </c>
@@ -4159,10 +4159,10 @@
         <v>324</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>334</v>
       </c>
@@ -4173,10 +4173,10 @@
         <v>313</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>334</v>
       </c>
@@ -4187,10 +4187,10 @@
         <v>277</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>334</v>
       </c>
@@ -4201,10 +4201,10 @@
         <v>278</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>334</v>
       </c>
@@ -4215,10 +4215,10 @@
         <v>292</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>334</v>
       </c>
@@ -4229,10 +4229,10 @@
         <v>296</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>334</v>
       </c>
@@ -4243,10 +4243,10 @@
         <v>306</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>334</v>
       </c>
@@ -4257,10 +4257,10 @@
         <v>303</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>334</v>
       </c>
@@ -4271,10 +4271,10 @@
         <v>323</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>334</v>
       </c>
@@ -4285,10 +4285,10 @@
         <v>295</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>334</v>
       </c>
@@ -4299,10 +4299,10 @@
         <v>321</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>334</v>
       </c>
@@ -4313,10 +4313,10 @@
         <v>314</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>334</v>
       </c>
@@ -4327,10 +4327,10 @@
         <v>279</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>334</v>
       </c>
@@ -4341,10 +4341,10 @@
         <v>302</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>334</v>
       </c>
@@ -4355,10 +4355,10 @@
         <v>276</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>334</v>
       </c>
@@ -4369,10 +4369,10 @@
         <v>322</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>334</v>
       </c>
@@ -4383,10 +4383,10 @@
         <v>301</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>334</v>
       </c>
@@ -4397,10 +4397,10 @@
         <v>300</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>334</v>
       </c>
@@ -4411,10 +4411,10 @@
         <v>299</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>334</v>
       </c>
@@ -4425,10 +4425,10 @@
         <v>289</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>334</v>
       </c>
@@ -4439,10 +4439,10 @@
         <v>310</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>334</v>
       </c>
@@ -4453,10 +4453,10 @@
         <v>286</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>334</v>
       </c>
@@ -4467,10 +4467,10 @@
         <v>298</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>334</v>
       </c>
@@ -4481,10 +4481,10 @@
         <v>312</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>334</v>
       </c>
@@ -4495,10 +4495,10 @@
         <v>147</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>334</v>
       </c>
@@ -4509,10 +4509,10 @@
         <v>176</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>334</v>
       </c>
@@ -4523,10 +4523,10 @@
         <v>163</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>334</v>
       </c>
@@ -4537,10 +4537,10 @@
         <v>164</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>334</v>
       </c>
@@ -4551,10 +4551,10 @@
         <v>165</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>334</v>
       </c>
@@ -4565,10 +4565,10 @@
         <v>125</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>334</v>
       </c>
@@ -4579,10 +4579,10 @@
         <v>166</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>334</v>
       </c>
@@ -4593,10 +4593,10 @@
         <v>167</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>334</v>
       </c>
@@ -4607,10 +4607,10 @@
         <v>150</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>334</v>
       </c>
@@ -4621,10 +4621,10 @@
         <v>154</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>334</v>
       </c>
@@ -4635,10 +4635,10 @@
         <v>180</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>334</v>
       </c>
@@ -4649,10 +4649,10 @@
         <v>145</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>334</v>
       </c>
@@ -4663,10 +4663,10 @@
         <v>155</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>334</v>
       </c>
@@ -4677,10 +4677,10 @@
         <v>156</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>334</v>
       </c>
@@ -4691,10 +4691,10 @@
         <v>159</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>334</v>
       </c>
@@ -4705,10 +4705,10 @@
         <v>162</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>334</v>
       </c>
@@ -4719,10 +4719,10 @@
         <v>157</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>334</v>
       </c>
@@ -4733,10 +4733,10 @@
         <v>158</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>334</v>
       </c>
@@ -4747,10 +4747,10 @@
         <v>160</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>334</v>
       </c>
@@ -4761,10 +4761,10 @@
         <v>161</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>334</v>
       </c>
@@ -4775,10 +4775,10 @@
         <v>146</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>334</v>
       </c>
@@ -4789,10 +4789,10 @@
         <v>170</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>334</v>
       </c>
@@ -4803,10 +4803,10 @@
         <v>173</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>334</v>
       </c>
@@ -4817,10 +4817,10 @@
         <v>171</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>334</v>
       </c>
@@ -4831,10 +4831,10 @@
         <v>172</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>334</v>
       </c>
@@ -4845,10 +4845,10 @@
         <v>174</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>334</v>
       </c>
@@ -4859,10 +4859,10 @@
         <v>175</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>334</v>
       </c>
@@ -4873,10 +4873,10 @@
         <v>152</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>334</v>
       </c>
@@ -4887,10 +4887,10 @@
         <v>178</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>334</v>
       </c>
@@ -4901,10 +4901,10 @@
         <v>144</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>334</v>
       </c>
@@ -4915,10 +4915,10 @@
         <v>179</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>334</v>
       </c>
@@ -4929,10 +4929,10 @@
         <v>153</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>334</v>
       </c>
@@ -4943,10 +4943,10 @@
         <v>148</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>334</v>
       </c>
@@ -4957,10 +4957,10 @@
         <v>177</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>334</v>
       </c>
@@ -4971,10 +4971,10 @@
         <v>149</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>334</v>
       </c>
@@ -4985,10 +4985,10 @@
         <v>151</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>334</v>
       </c>
@@ -4999,10 +4999,10 @@
         <v>168</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>334</v>
       </c>
@@ -5013,10 +5013,10 @@
         <v>169</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>334</v>
       </c>
@@ -5027,10 +5027,10 @@
         <v>275</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>334</v>
       </c>
@@ -5041,10 +5041,10 @@
         <v>274</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>334</v>
       </c>
@@ -5055,12 +5055,12 @@
         <v>134</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>10</v>
@@ -5069,12 +5069,12 @@
         <v>181</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>10</v>
@@ -5083,12 +5083,12 @@
         <v>12</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>10</v>
@@ -5097,12 +5097,12 @@
         <v>11</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>10</v>
@@ -5111,12 +5111,12 @@
         <v>9</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>3</v>
@@ -5125,12 +5125,12 @@
         <v>4</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>3</v>
@@ -5139,12 +5139,12 @@
         <v>2</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>6</v>
@@ -5153,12 +5153,12 @@
         <v>182</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>6</v>
@@ -5167,12 +5167,12 @@
         <v>5</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>8</v>
@@ -5181,12 +5181,12 @@
         <v>7</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>1</v>
@@ -5195,12 +5195,12 @@
         <v>0</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>26</v>
@@ -5209,12 +5209,12 @@
         <v>185</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>26</v>
@@ -5223,262 +5223,262 @@
         <v>25</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>202</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>332</v>
       </c>
@@ -5489,10 +5489,10 @@
         <v>190</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>332</v>
       </c>
@@ -5503,10 +5503,10 @@
         <v>189</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>332</v>
       </c>
@@ -5517,10 +5517,10 @@
         <v>187</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>332</v>
       </c>
@@ -5531,10 +5531,10 @@
         <v>188</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>332</v>
       </c>
@@ -5545,10 +5545,10 @@
         <v>186</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>332</v>
       </c>
@@ -5559,10 +5559,10 @@
         <v>29</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>332</v>
       </c>
@@ -5573,10 +5573,10 @@
         <v>30</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>332</v>
       </c>
@@ -5587,10 +5587,10 @@
         <v>31</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>332</v>
       </c>
@@ -5601,10 +5601,10 @@
         <v>36</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>332</v>
       </c>
@@ -5615,10 +5615,10 @@
         <v>42</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>332</v>
       </c>
@@ -5629,10 +5629,10 @@
         <v>27</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>332</v>
       </c>
@@ -5643,10 +5643,10 @@
         <v>34</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>332</v>
       </c>
@@ -5657,10 +5657,10 @@
         <v>33</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>332</v>
       </c>
@@ -5671,10 +5671,10 @@
         <v>38</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>332</v>
       </c>
@@ -5685,10 +5685,10 @@
         <v>35</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>332</v>
       </c>
@@ -5699,10 +5699,10 @@
         <v>39</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>332</v>
       </c>
@@ -5713,10 +5713,10 @@
         <v>37</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>332</v>
       </c>
@@ -5727,10 +5727,10 @@
         <v>32</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>332</v>
       </c>
@@ -5741,10 +5741,10 @@
         <v>41</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>332</v>
       </c>
@@ -5755,80 +5755,80 @@
         <v>40</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>329</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>137</v>
       </c>
@@ -5839,10 +5839,10 @@
         <v>268</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>137</v>
       </c>
@@ -5853,10 +5853,10 @@
         <v>271</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>137</v>
       </c>
@@ -5867,10 +5867,10 @@
         <v>272</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>137</v>
       </c>
@@ -5881,10 +5881,10 @@
         <v>267</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>137</v>
       </c>
@@ -5895,10 +5895,10 @@
         <v>270</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>137</v>
       </c>
@@ -5909,10 +5909,10 @@
         <v>269</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>137</v>
       </c>
@@ -5923,10 +5923,10 @@
         <v>273</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>137</v>
       </c>
@@ -5937,10 +5937,10 @@
         <v>266</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>137</v>
       </c>
@@ -5951,10 +5951,10 @@
         <v>142</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>137</v>
       </c>
@@ -5965,10 +5965,10 @@
         <v>141</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>137</v>
       </c>
@@ -5979,10 +5979,10 @@
         <v>138</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>137</v>
       </c>
@@ -5993,10 +5993,10 @@
         <v>140</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>137</v>
       </c>
@@ -6007,10 +6007,10 @@
         <v>143</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>137</v>
       </c>
@@ -6021,10 +6021,10 @@
         <v>139</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>137</v>
       </c>
@@ -6035,10 +6035,10 @@
         <v>136</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>326</v>
       </c>
@@ -6049,10 +6049,10 @@
         <v>183</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>326</v>
       </c>
@@ -6063,10 +6063,10 @@
         <v>18</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>326</v>
       </c>
@@ -6077,10 +6077,10 @@
         <v>13</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>326</v>
       </c>
@@ -6091,10 +6091,10 @@
         <v>22</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>326</v>
       </c>
@@ -6105,10 +6105,10 @@
         <v>21</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>326</v>
       </c>
@@ -6119,10 +6119,10 @@
         <v>17</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>326</v>
       </c>
@@ -6133,10 +6133,10 @@
         <v>15</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>326</v>
       </c>
@@ -6147,10 +6147,10 @@
         <v>16</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>326</v>
       </c>
@@ -6161,10 +6161,10 @@
         <v>19</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>326</v>
       </c>
@@ -6175,105 +6175,105 @@
         <v>20</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
